--- a/data/status_nilai.xlsx
+++ b/data/status_nilai.xlsx
@@ -474,7 +474,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ilmu Pengetahuan Alam</t>
+          <t>IPA</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ilmu Pengetahuan Sosial</t>
+          <t>IPS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pendidikan Agama Islam</t>
+          <t>Pendidikan Agama dan Budi Pekerti</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bahasa Sunda</t>
+          <t>Basa Sunda</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -666,7 +666,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bahasa Arab</t>
+          <t>Personal Development</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -682,7 +682,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hadits</t>
+          <t>Bahasa Arab</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -698,7 +698,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aqidah</t>
+          <t>Akhlak</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -714,7 +714,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Akhlak</t>
+          <t>Akidah Akhlak</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -730,7 +730,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fiqih</t>
+          <t>Hadits</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -746,7 +746,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Personal Development</t>
+          <t>Fiqih</t>
         </is>
       </c>
       <c r="B20" t="n">
